--- a/Supply Chain Dashboard Live.xlsx
+++ b/Supply Chain Dashboard Live.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/talha.yamin/DataSolutions 360/1. Excel Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_Portfolio Project Github\Supply Chain Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49649120-1F42-7D45-99D7-01590BE45EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0661F382-8CE4-4411-BB45-9ADC57B6C713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{3A0EB273-4697-FB40-93CE-CD2FA2EE9562}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A0EB273-4697-FB40-93CE-CD2FA2EE9562}"/>
   </bookViews>
   <sheets>
     <sheet name="supply_chain_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1358,13 +1357,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE22628-074B-2D4A-B56B-A2C0F9205837}">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="17.25" customWidth="1"/>
+    <col min="20" max="20" width="18.5" customWidth="1"/>
+    <col min="22" max="22" width="18.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1438,7 +1442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1512,7 +1516,7 @@
         <v>187.75207549999999</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1586,7 +1590,7 @@
         <v>503.06557909999998</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1660,7 +1664,7 @@
         <v>141.9202818</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1734,7 +1738,7 @@
         <v>254.7761592</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1808,7 +1812,7 @@
         <v>923.44063170000004</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1882,7 +1886,7 @@
         <v>235.4612367</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1956,7 +1960,7 @@
         <v>134.36909689999999</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -2030,7 +2034,7 @@
         <v>802.0563118</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -2104,7 +2108,7 @@
         <v>505.55713420000001</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2178,7 +2182,7 @@
         <v>995.9294615</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2252,7 +2256,7 @@
         <v>806.10317769999995</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2326,7 +2330,7 @@
         <v>126.72303340000001</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2400,7 +2404,7 @@
         <v>402.96878909999998</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2474,7 +2478,7 @@
         <v>547.24100520000002</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2548,7 +2552,7 @@
         <v>929.23528999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2622,7 +2626,7 @@
         <v>127.8618</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2696,7 +2700,7 @@
         <v>865.52577980000001</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2770,7 +2774,7 @@
         <v>670.93439079999996</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2844,7 +2848,7 @@
         <v>593.48025870000004</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -2918,7 +2922,7 @@
         <v>477.30763109999998</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2992,7 +2996,7 @@
         <v>493.87121530000002</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -3066,7 +3070,7 @@
         <v>523.36091469999997</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -3140,7 +3144,7 @@
         <v>205.5719958</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -3214,7 +3218,7 @@
         <v>196.32944610000001</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3288,7 +3292,7 @@
         <v>758.72477260000005</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3362,7 +3366,7 @@
         <v>458.53594570000001</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3436,7 +3440,7 @@
         <v>617.8669165</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -3510,7 +3514,7 @@
         <v>762.45918219999999</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -3584,7 +3588,7 @@
         <v>123.4370275</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -3658,7 +3662,7 @@
         <v>764.93537590000005</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -3732,7 +3736,7 @@
         <v>880.08098819999998</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -3806,7 +3810,7 @@
         <v>609.37920659999997</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3880,7 +3884,7 @@
         <v>761.17390950000004</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -3954,7 +3958,7 @@
         <v>371.25529549999999</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -4028,7 +4032,7 @@
         <v>510.35800039999998</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -4102,7 +4106,7 @@
         <v>553.42047119999995</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -4176,7 +4180,7 @@
         <v>403.80897420000002</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -4250,7 +4254,7 @@
         <v>183.93296799999999</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -4324,7 +4328,7 @@
         <v>339.67286990000002</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -4398,7 +4402,7 @@
         <v>653.67299460000004</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -4472,7 +4476,7 @@
         <v>529.80872399999998</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -4546,7 +4550,7 @@
         <v>275.5243711</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -4620,7 +4624,7 @@
         <v>635.65712050000002</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -4694,7 +4698,7 @@
         <v>716.04411979999998</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -4768,7 +4772,7 @@
         <v>610.4532696</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -4842,7 +4846,7 @@
         <v>495.30569700000001</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -4916,7 +4920,7 @@
         <v>380.43593709999999</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -4990,7 +4994,7 @@
         <v>581.60235509999995</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -5064,7 +5068,7 @@
         <v>768.65191400000003</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -5138,7 +5142,7 @@
         <v>336.89016850000002</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -5212,7 +5216,7 @@
         <v>496.24865030000001</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -5286,7 +5290,7 @@
         <v>694.98231759999999</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -5360,7 +5364,7 @@
         <v>602.89849879999997</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -5434,7 +5438,7 @@
         <v>750.73784069999999</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -5508,7 +5512,7 @@
         <v>814.06999659999997</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -5582,7 +5586,7 @@
         <v>323.01292799999999</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -5656,7 +5660,7 @@
         <v>832.21080870000003</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -5730,7 +5734,7 @@
         <v>482.19123860000002</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -5804,7 +5808,7 @@
         <v>110.3643352</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -5878,7 +5882,7 @@
         <v>312.57427360000003</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -5952,7 +5956,7 @@
         <v>430.16909700000002</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -6026,7 +6030,7 @@
         <v>164.3665282</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>57</v>
       </c>
@@ -6100,7 +6104,7 @@
         <v>320.84651580000002</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -6174,7 +6178,7 @@
         <v>687.28617789999998</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -6248,7 +6252,7 @@
         <v>771.22508470000002</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -6322,7 +6326,7 @@
         <v>555.85910369999999</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -6396,7 +6400,7 @@
         <v>393.84334860000001</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -6470,7 +6474,7 @@
         <v>169.27180139999999</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -6544,7 +6548,7 @@
         <v>299.70630310000001</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -6618,7 +6622,7 @@
         <v>207.66320619999999</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -6692,7 +6696,7 @@
         <v>183.27289870000001</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>57</v>
       </c>
@@ -6766,7 +6770,7 @@
         <v>405.16706790000001</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>57</v>
       </c>
@@ -6840,7 +6844,7 @@
         <v>677.94456979999995</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>57</v>
       </c>
@@ -6914,7 +6918,7 @@
         <v>866.47280009999997</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -6988,7 +6992,7 @@
         <v>341.55265680000002</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -7062,7 +7066,7 @@
         <v>873.12964799999997</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -7136,7 +7140,7 @@
         <v>997.41345009999998</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -7210,7 +7214,7 @@
         <v>852.5680989</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -7284,7 +7288,7 @@
         <v>323.59220340000002</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>24</v>
       </c>
@@ -7358,7 +7362,7 @@
         <v>351.50421929999999</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -7432,7 +7436,7 @@
         <v>787.77985049999995</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>24</v>
       </c>
@@ -7506,7 +7510,7 @@
         <v>276.7783359</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>33</v>
       </c>
@@ -7580,7 +7584,7 @@
         <v>589.97855560000005</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>24</v>
       </c>
@@ -7654,7 +7658,7 @@
         <v>682.9710182</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>24</v>
       </c>
@@ -7728,7 +7732,7 @@
         <v>465.45700599999998</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>57</v>
       </c>
@@ -7802,7 +7806,7 @@
         <v>842.68682999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>33</v>
       </c>
@@ -7876,7 +7880,7 @@
         <v>264.2548898</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -7950,7 +7954,7 @@
         <v>879.35921770000004</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>57</v>
       </c>
@@ -8024,7 +8028,7 @@
         <v>103.916248</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>57</v>
       </c>
@@ -8098,7 +8102,7 @@
         <v>517.49997389999999</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>33</v>
       </c>
@@ -8172,7 +8176,7 @@
         <v>990.07847249999998</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>57</v>
       </c>
@@ -8246,7 +8250,7 @@
         <v>996.77831500000002</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>57</v>
       </c>
@@ -8320,7 +8324,7 @@
         <v>230.0927825</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>24</v>
       </c>
@@ -8394,7 +8398,7 @@
         <v>823.52384589999997</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>57</v>
       </c>
@@ -8468,7 +8472,7 @@
         <v>846.665257</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -8542,7 +8546,7 @@
         <v>778.86424139999997</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>57</v>
       </c>
@@ -8616,7 +8620,7 @@
         <v>188.7421411</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>24</v>
       </c>
@@ -8690,7 +8694,7 @@
         <v>540.13242290000005</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>33</v>
       </c>
@@ -8764,7 +8768,7 @@
         <v>882.19886350000002</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>24</v>
       </c>

--- a/Supply Chain Dashboard Live.xlsx
+++ b/Supply Chain Dashboard Live.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\_Portfolio Project Github\Supply Chain Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0661F382-8CE4-4411-BB45-9ADC57B6C713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488BBBB6-0BBA-40DE-9792-CF71EC651329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A0EB273-4697-FB40-93CE-CD2FA2EE9562}"/>
   </bookViews>
@@ -1357,13 +1357,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE22628-074B-2D4A-B56B-A2C0F9205837}">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="17.25" customWidth="1"/>
+    <col min="17" max="17" width="17.125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.5" customWidth="1"/>
     <col min="22" max="22" width="18.5" customWidth="1"/>
   </cols>
